--- a/DOWNLOADS/EDITAIS/U_929472_E_901112025_29-09-2025_10h30m/U_929472_E_901112025_29-09-2025_10h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_929472_E_901112025_29-09-2025_10h30m/U_929472_E_901112025_29-09-2025_10h30m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Nº</t>
   </si>
@@ -142,142 +142,55 @@
     <t>Lâmpada led Lâmpada Led Tensão Nominal: BivoltV, Potência Nominal: 18W, Tipo Base: E-27, Cor: Branca, Aplicação: Para Uso Em Geral, Temperatura De Cor: 600K, Frequência Nominal: 50/60HZ</t>
   </si>
   <si>
-    <t>Quantidade de polos: 2 Bipolar - Tensão Máxima de Serviço "c.a": 415V — 50 /60Hz - Correntes Nominais: 32-63-100A E , &amp; - Ampere: 16 | - Frequência: 50/60Hz STAA - Categoria de Utilização: AC22A F * - Manobras Mecânicas: 10.000 ” - Manobras elétricas: 10.000 u - Grau de Proteção: IP20, IP 40 em Painel. S m &amp; - Fixação: Encaixe perfil DIN 35 mm. - Garantia: 90 dias</t>
-  </si>
-  <si>
-    <t>Quantidade de polos: 1 Unipolar - Tensão Máxima de Serviço "c.a": 415V — 50 /60Hz É) - Correntes Nominais: 32-63-100A - Ampere: 10 STECK - Frequência: 50/60Hz TU - Categoria de Utilização: AC22A TE - Manobras Mecânicas: 10.000 - Manobras elétricas: 10.000 w - Grau de Proteção: IP20, IP 40 em Painel. - Fixação: Encaixe perfil DIN 35 mm. - Garantia: 90 dias</t>
-  </si>
-  <si>
-    <t>Formato Instalação: Embutir - Quantidade de Disjuntores: 8 posições - Material: Termoplástico de alta resistência autoextinguível - Gabinete: Plástico PS 9 - Portas: Com abertura de 180º - Entradas: Entrada de cabos (eletrodutos) nas 4 faces - Normas: Atende as normas ABNT NBR, IEC 60439-1,60439-3 e 60670-1 - Grau de Proteção: IP40 - Proteção: Não propaga chama - Barramento: Não</t>
-  </si>
-  <si>
-    <t>Tipo de embalagem: Rolo - A antichama e de acordo com ABNT NBR 15465 - Cor da cobertura: Laranja - Comprimento do cabo: 25 m - Diâmetro: 32mm - Polegadas: 1" - Milímetros: 322mm NS cot taa - Material da capa: PVC - Segurança: material antichama e de acordo com ABNT NBR 15465. - Compatível com o padrão mangueira corrugada, conduite corrugado.</t>
-  </si>
-  <si>
-    <t>Borda aparente: Apenas deixando a moldura para baixo, para forros que são acabados (PVC, Modulado, Gesso Acartonado, Isopor, E-clean))/ — Acabamento padronizado; / Fabricado em Alumínio resistente; 50 cm - Pintura eletrostática, não descasca; Cor: Branco. | EEm J</t>
-  </si>
-  <si>
-    <t>Utilizado para confecção de forros, molduras e moldes; Gesso em pó, basta adicionar água na sua preparação; 100% Mineral; Cor: Branco; Acabamento: Acetinado; Diluição: Base Água; Saco de 40Kkg.</t>
-  </si>
-  <si>
-    <t>Central: Tensão de alimentação: 127 V; Consumo em repouso: 1,1 W; Máxima corrente comutada: 1 A por saída (Contator Rede / Ar); Dimensões: 90 mm X 72 mm X 62 mm; Peso Liquido: 0,26 kg; Caixa plástica em ABS anti-chama; Grau de proteção IPXO; Classe |l; As conexões elétricas são feitas por 14 terminais com parafusos e na parte de cima existem quatro indicadores luminosos. Alcance entre a central e sensores de 10 metros. - Sensor de Presença IR (Infravermelho Passivo) sem fio: Peça circular com diâmetro de 84mm com uma lente no meio, dentro da lente ficam o elemento sensor e transmissor que se conecta a central. Base com fixação no teto, sem fio e alimentado por bateria CR2032 com duração de um ano. Alcance entre a central e sensores de 10 metros. - Sensor de Porta/janela sem fio: Composto de duas partes. Uma que fica no batente da porta (circuito transmissor) e outra que fica na porta/janela (imã). Corpo plástico e alimentado por bateria CR2032 com duração de um ano. Alcance entre a central e sensores de 10 metros. A caixa do imã possui bases com alturas diferentes, adaptando-se a distância da porta/janela e batente. - Chave contatora: 20A,127V, 4 polos e 750 volts.</t>
-  </si>
-  <si>
-    <t>Peça circular com diâmetro de 84mm com uma lente no meio, dentro da lente ficam o elemento sensor e transmissor que se conecta a central. Base com fixação no teto, sem fio e alimentado por bateria CR2032 com duração de um ano. Alcance entre a central e sensores de 10 metros. Conexão com o kit.</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Modelo - Tubo Led T5 — Luz Fria - Potência 9w — 6500k - Fluxo Luminoso — 1000 Im - Tensão 100 — 240V - Fator Potência &gt;0,92 - Frequência 50/60Hz - Vida útil — 25000h - Base - G5</t>
-  </si>
-  <si>
-    <t>Modelo — Branca Fria - Potência — 18W — 6500K - Fluxo Luminoso — 2000 Im - Tensão 100 — 240V - Fator Potência &gt;0,92 - Frequência 50/60Hz - Vida útil — 25000h - Base - G5</t>
-  </si>
-  <si>
-    <t>Alimentação -110vca a 245vca - Frequência — 60h - Bateria: VRLA 6V e 3,7 a 4,5Ah - Carcaça: PSAI, RECICLÁVEL - Difusor: PSAI. RECICLÁVEL - Autonomia: mínimo 4:30H - LEDS: MINIMO 550 LUMENS - OBS: modelo/marca de referência:Unitron</t>
-  </si>
-  <si>
-    <t>Cor da Luz - Branco-quente - Fluxo Luminoso - 900Ilm - Formato - Tubular - Temperatura de Cor - 3000k - Voltagem - 110/220 (Bivolt) - Base - G5</t>
-  </si>
-  <si>
-    <t>40,98</t>
-  </si>
-  <si>
-    <t>9,86</t>
-  </si>
-  <si>
-    <t>59,47</t>
-  </si>
-  <si>
-    <t>64,63</t>
-  </si>
-  <si>
-    <t>73,16</t>
-  </si>
-  <si>
-    <t>102,17</t>
-  </si>
-  <si>
-    <t>830,55</t>
-  </si>
-  <si>
-    <t>144,45</t>
-  </si>
-  <si>
-    <t>140,24</t>
-  </si>
-  <si>
-    <t>319,64</t>
-  </si>
-  <si>
-    <t>316,09</t>
-  </si>
-  <si>
-    <t>2413,33</t>
-  </si>
-  <si>
-    <t>28,33</t>
-  </si>
-  <si>
-    <t>23,56</t>
-  </si>
-  <si>
-    <t>21,50</t>
-  </si>
-  <si>
-    <t>14,36</t>
-  </si>
-  <si>
-    <t>17,01</t>
-  </si>
-  <si>
-    <t>3893,37</t>
-  </si>
-  <si>
-    <t>1873,02</t>
-  </si>
-  <si>
-    <t>5649,44</t>
-  </si>
-  <si>
-    <t>6140,17</t>
-  </si>
-  <si>
-    <t>1463,13</t>
-  </si>
-  <si>
-    <t>510,87</t>
-  </si>
-  <si>
-    <t>78902,25</t>
-  </si>
-  <si>
-    <t>17334,00</t>
-  </si>
-  <si>
-    <t>841,43</t>
-  </si>
-  <si>
-    <t>958,92</t>
-  </si>
-  <si>
-    <t>1264,37</t>
-  </si>
-  <si>
-    <t>14163,50</t>
-  </si>
-  <si>
-    <t>11779,88</t>
-  </si>
-  <si>
-    <t>644,99</t>
-  </si>
-  <si>
-    <t>11489,07</t>
-  </si>
-  <si>
-    <t>13605,00</t>
+    <t>Disjuntor bipolar 16A:</t>
+  </si>
+  <si>
+    <t>Disjuntor unipolar 10A :</t>
+  </si>
+  <si>
+    <t>Quadro de Distribuição de Sobrepor Para 8 Disjuntores:</t>
+  </si>
+  <si>
+    <t>Conduite Corrugado 32mm - 1 Pol - Laranja - rolo de 25 mts:</t>
+  </si>
+  <si>
+    <t>Alçapão de Alumínio para Gesso Drywall - 50 x 50 cm Branco - sem Tampa:</t>
+  </si>
+  <si>
+    <t>Gesso estuque branco – saco 40kg:</t>
+  </si>
+  <si>
+    <t>Kit Economizador de energia com Rádio Frequência (Keyless/Sem fio) - (Central</t>
+  </si>
+  <si>
+    <t>Sensor de Presença IR (Infravermelho Passivo) sem fio: Peça circular com diâmetro</t>
+  </si>
+  <si>
+    <t>Cabo Flexível 750V 1,5mm Preto Rolo c/100mts</t>
+  </si>
+  <si>
+    <t>Cabo Híbrido 4mm alta temperatura 750V até 400 graus 50mts</t>
+  </si>
+  <si>
+    <t>Cabo de 2,5mm Fio Alta Temperatura 300ºC Graus 750v Rolo c/ 40mts</t>
+  </si>
+  <si>
+    <t>Cabo PP 5 x 4,0mm Rolo c/100mts</t>
+  </si>
+  <si>
+    <t>Lâmpada Led 9W -Modelo - Tubo Led T5 – Luz Fria -Potência 9w – 6500k -Fluxo Luminoso – 1000 lm -Tensão 100 – 240V -Fator Potência &gt;0,92 -Frequência 50/60Hz -Vida útil – 25000h - Base - G5</t>
+  </si>
+  <si>
+    <t>Lâmpada Led 18W -Modelo – Branca Fria -Potência – 18W – 6500K -Fluxo Luminoso – 2000 lm -Tensão 100 – 240V -Fator Potência &gt;0,92 -Frequência 50/60Hz -Vida útil – 25000h - Base - G5</t>
+  </si>
+  <si>
+    <t>Luminária de emergência a LEDS -Alimentação -110vca a 245vca -Frequência – 60h -Bateria: VRLA 6V e 3,7 a 4,5Ah -Carcaça: PSAI, RECICLÁVEL -Difusor: PSAI. RECICLÁVEL -Autonomia: mínimo 4:30H -LEDS: MINIMO 550 LUMENS -OBS: modelo/marca de referência:Unitron</t>
+  </si>
+  <si>
+    <t>Lâmpada Tubular Led 9w -Cor da Luz - Branco-quente -Fluxo Luminoso - 900lm -Formato - Tubular -Temperatura de Cor - 3000k -Voltagem - 110/220 (Bivolt) -Base - G5</t>
+  </si>
+  <si>
+    <t>Lâmpada Tubular Led 18w -Cor da Luz - Branco-quente -Fluxo Luminoso - 900lm -Formato - Tubular -Temperatura de Cor - 3000k -Voltagem - 110/220 (Bivolt) -Base - G5</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -698,20 +611,20 @@
       <c r="D2">
         <v>95</v>
       </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
+      <c r="E2">
+        <v>40.98284210526316</v>
+      </c>
+      <c r="F2">
+        <v>3893.37</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -727,20 +640,17 @@
       <c r="D3">
         <v>190</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
+      <c r="F3">
+        <v>1873.02</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -756,20 +666,20 @@
       <c r="D4">
         <v>95</v>
       </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
+      <c r="E4">
+        <v>59.46778947368421</v>
+      </c>
+      <c r="F4">
+        <v>5649.44</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -785,20 +695,20 @@
       <c r="D5">
         <v>95</v>
       </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
+      <c r="E5">
+        <v>64.63336842105264</v>
+      </c>
+      <c r="F5">
+        <v>6140.17</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -814,20 +724,17 @@
       <c r="D6">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
+      <c r="F6">
+        <v>1463.13</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -843,20 +750,20 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>102.174</v>
+      </c>
+      <c r="F7">
+        <v>510.87</v>
+      </c>
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" t="s">
-        <v>89</v>
-      </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -872,20 +779,20 @@
       <c r="D8">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>78</v>
+      <c r="E8">
+        <v>830.55</v>
+      </c>
+      <c r="F8">
+        <v>78902.25</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -901,20 +808,17 @@
       <c r="D9">
         <v>120</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
+      <c r="F9">
+        <v>17334</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -930,20 +834,17 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>80</v>
+      <c r="F10">
+        <v>841.4299999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -954,25 +855,25 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
+      <c r="E11">
+        <v>319.64</v>
+      </c>
+      <c r="F11">
+        <v>958.92</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -983,25 +884,22 @@
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" t="s">
-        <v>82</v>
+      <c r="F12">
+        <v>1264.37</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1012,25 +910,25 @@
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
+      <c r="E13">
+        <v>2413.33</v>
+      </c>
+      <c r="F13">
+        <v>2413.33</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1041,25 +939,22 @@
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>500</v>
       </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>83</v>
+      <c r="F14">
+        <v>14163.5</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1070,25 +965,22 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>500</v>
       </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
+      <c r="F15">
+        <v>11779.88</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1099,25 +991,22 @@
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
+      <c r="F16">
+        <v>644.99</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1128,25 +1017,22 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>800</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
+      <c r="F17">
+        <v>11489.07</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1157,25 +1043,22 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>800</v>
       </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
+      <c r="F18">
+        <v>13605</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
